--- a/biology/Zoologie/Carlarius/Carlarius.xlsx
+++ b/biology/Zoologie/Carlarius/Carlarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carlarius est un genre de poissons osseux de la famille des Ariidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est endémique de la côte ouest de l'Afrique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est endémique de la côte ouest de l'Afrique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (20 octobre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (20 octobre 2023) :
 Carlarius gigas (Boulenger, 1911)
 Carlarius heudelotii (Valenciennes, 1840)
 Carlarius latiscutatus (Günther, 1864)
@@ -576,9 +592,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Carlarius Marceniuk &amp; Menezes, 2007[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Carlarius Marceniuk &amp; Menezes, 2007.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Carlarius, est la combinaison de Carl, qui rend hommage à l'ichtyologue américain Carl J. Ferraris (d)[3], chercheur associé à l'Académie des sciences de Californie, et de Arius, le genre type de la famille des Ariidae[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Carlarius, est la combinaison de Carl, qui rend hommage à l'ichtyologue américain Carl J. Ferraris (d), chercheur associé à l'Académie des sciences de Californie, et de Arius, le genre type de la famille des Ariidae.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Alexandre P. Alexandre et Naércio A. Menezes, « Systematics of the family Ariidae (Ostariophysi, Siluriformes), with a redefinition of the genera », Zootaxa, vol. 1416, no 1,‎ 8 mars 2007, p. 1–126 (ISSN 1175-5334 et 1175-5326, DOI 10.11646/zootaxa.1416.1.1, lire en ligne, consulté le 20 octobre 2023)</t>
         </is>
